--- a/Program/Other/URS會議審查紀錄/DbLayouts/L6-共同作業/CdPerformance.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L6-共同作業/CdPerformance.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{088194E3-B4EE-4198-A721-9CDF2C088CFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D96201-74FC-473F-8567-7726FC695422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -193,79 +193,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>~~~(綁約2年以下或未綁約)~~~
-A: 新貸件
-B: 新貸件(同押品,數額度之額度一以外)
-C: 原額度內—動支件
-D: 新增額度—新貸件(指有增加設定抵押權者)
-E: 展期件
-~~~(有綁約2年(含)以上)~~~
-1: 新貸件
-2: 新貸件(同押品,數額度之額度一以外)
-3: 原額度內—動支件
-4: 新增額度—新貸件(指有增加設定抵押權者)
-5: 展期件
-~~~(無關綁約)~~~
-6: 原額度內—6個月內動支件(還款後6個月內再動支者)
-7: 服務件
-8: 特殊件
-9: 固特利契轉</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>0=不計件數
-例: 1=1件 , 2=2件</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>0=無上限
-例: 1=最高1件</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>介紹單位_件數&gt;0時有值
-例: 600000=1件(60萬以上)</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>輸入比例
-例: 0=無 , 1=全部計算</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>輸入比例
-例: 0=無 , 0.001=1/1000*撥款金額</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>例: 0=無限制 , 500000=撥款金額達50萬以上者</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>例: 0=無 , 10000=以每一萬元計算獎金金額</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>介紹人_換算業績金額基準=0時必須為0
-例: 0=無 , 35=以每一萬元計算35元業績獎金</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>介紹人_二階(或三階承攬)業務報酬_金額基準=0時必須為0
-例: 0=無 , 12.5=以每一萬元計算12.5元業績獎金</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>0=不計件數
-例: 1=1件 , 0.1=0.1件</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>輸入比例
-例: 0=無 , 1=全部計算 , 0.5=撥款金額*1/2</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>PieceCode</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -433,9 +360,70 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>例: 600000=1件(60萬以上)
-例: 100000=10萬計0.1件,最高1件</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>~~~(綁約2年以下或未綁約)~~~
+A:新貸件
+B:新貸件(同押品,數額度之額度一以外)
+C:原額度內—動支件
+D:新增額度—新貸件(指有增加設定抵押權者)
+E:展期件
+~~~(有綁約2年(含)以上)~~~
+1:新貸件
+2:新貸件(同押品,數額度之額度一以外)
+3:原額度內—動支件
+4:新增額度—新貸件(指有增加設定抵押權者)
+5:展期件
+~~~(無關綁約)~~~
+6:原額度內—6個月內動支件(還款後6個月內再動支者)
+7:服務件
+8:特殊件
+9:固特利契轉</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>0=不計件數
+例： 1=1件 , 2=2件</t>
+  </si>
+  <si>
+    <t>介紹單位_件數&gt;0時有值
+例： 600000=1件(60萬以上)</t>
+  </si>
+  <si>
+    <t>輸入比例
+例： 0=無 , 1=全部計算</t>
+  </si>
+  <si>
+    <t>輸入比例
+例： 0=無 , 0.001=1/1000*撥款金額</t>
+  </si>
+  <si>
+    <t>例： 0=無限制 , 500000=撥款金額達50萬以上者</t>
+  </si>
+  <si>
+    <t>例： 0=無 , 10000=以每一萬元計算獎金金額</t>
+  </si>
+  <si>
+    <t>介紹人_換算業績金額基準=0時必須為0
+例： 0=無 , 35=以每一萬元計算35元業績獎金</t>
+  </si>
+  <si>
+    <t>介紹人_二階(或三階承攬)業務報酬_金額基準=0時必須為0
+例： 0=無 , 12.5=以每一萬元計算12.5元業績獎金</t>
+  </si>
+  <si>
+    <t>0=不計件數
+例： 1=1件 , 0.1=0.1件</t>
+  </si>
+  <si>
+    <t>0=無上限
+例： 1=最高1件</t>
+  </si>
+  <si>
+    <t>例： 600000=1件(60萬以上)
+例： 100000=10萬計0.1件,最高1件</t>
+  </si>
+  <si>
+    <t>輸入比例
+例： 0=無 , 1=全部計算 , 0.5=撥款金額*1/2</t>
   </si>
 </sst>
 </file>
@@ -1049,8 +1037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1070,7 +1058,7 @@
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="9" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>30</v>
@@ -1098,7 +1086,7 @@
       </c>
       <c r="B3" s="26"/>
       <c r="C3" s="20" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="15"/>
@@ -1177,41 +1165,41 @@
         <v>1</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E9" s="23">
         <v>6</v>
       </c>
       <c r="F9" s="23"/>
       <c r="G9" s="23" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="291.60000000000002" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="275.39999999999998" x14ac:dyDescent="0.3">
       <c r="A10" s="22">
         <v>2</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>31</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E10" s="19">
         <v>1</v>
       </c>
       <c r="F10" s="19"/>
       <c r="G10" s="19" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -1219,10 +1207,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D11" s="19" t="s">
         <v>29</v>
@@ -1234,7 +1222,7 @@
         <v>2</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -1242,10 +1230,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="19" t="s">
         <v>55</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>67</v>
       </c>
       <c r="D12" s="19" t="s">
         <v>29</v>
@@ -1257,7 +1245,7 @@
         <v>2</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -1265,10 +1253,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="D13" s="19" t="s">
         <v>29</v>
@@ -1280,7 +1268,7 @@
         <v>6</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -1288,10 +1276,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D14" s="19" t="s">
         <v>29</v>
@@ -1303,7 +1291,7 @@
         <v>6</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -1311,10 +1299,10 @@
         <v>7</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>29</v>
@@ -1326,7 +1314,7 @@
         <v>2</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -1334,10 +1322,10 @@
         <v>8</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D16" s="19" t="s">
         <v>29</v>
@@ -1349,7 +1337,7 @@
         <v>2</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -1357,10 +1345,10 @@
         <v>9</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="D17" s="19" t="s">
         <v>29</v>
@@ -1372,7 +1360,7 @@
         <v>2</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -1380,10 +1368,10 @@
         <v>10</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="D18" s="19" t="s">
         <v>29</v>
@@ -1395,7 +1383,7 @@
         <v>2</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -1403,10 +1391,10 @@
         <v>11</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="D19" s="19" t="s">
         <v>29</v>
@@ -1418,7 +1406,7 @@
         <v>2</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -1426,10 +1414,10 @@
         <v>12</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="D20" s="19" t="s">
         <v>29</v>
@@ -1441,7 +1429,7 @@
         <v>2</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -1449,10 +1437,10 @@
         <v>13</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D21" s="19" t="s">
         <v>29</v>
@@ -1464,7 +1452,7 @@
         <v>2</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="5" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
@@ -1472,10 +1460,10 @@
         <v>14</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="D22" s="21" t="s">
         <v>29</v>
@@ -1487,7 +1475,7 @@
         <v>2</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -1495,10 +1483,10 @@
         <v>15</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="D23" s="19" t="s">
         <v>29</v>
@@ -1510,7 +1498,7 @@
         <v>6</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -1710,32 +1698,32 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
